--- a/proj2_charts.xlsx
+++ b/proj2_charts.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CGGT\GPU_Programming\Project2-Stream-Compaction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6734175-5945-4014-8F38-6BCF3B3AD755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036F6422-DD7A-4A58-81C5-58CFBB82627A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1710" windowWidth="24700" windowHeight="13620" xr2:uid="{794A6C9C-3292-4421-868C-CD7E293EB60C}"/>
+    <workbookView xWindow="-10290" yWindow="70" windowWidth="20320" windowHeight="13960" xr2:uid="{794A6C9C-3292-4421-868C-CD7E293EB60C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -339,10 +336,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$7</c:f>
+              <c:f>Sheet1!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -353,6 +350,9 @@
                   <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
@@ -360,21 +360,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$7</c:f>
+              <c:f>Sheet1!$F$4:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.3849</c:v>
+                  <c:v>2.1647400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1663399999999999</c:v>
+                  <c:v>0.96870400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4643200000000001</c:v>
+                  <c:v>1.13869</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7500500000000001</c:v>
+                  <c:v>2.40333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.97539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -485,10 +488,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$7</c:f>
+              <c:f>Sheet1!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -499,6 +502,9 @@
                   <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
@@ -506,21 +512,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$7</c:f>
+              <c:f>Sheet1!$E$4:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.69062</c:v>
+                  <c:v>1.6096999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3357399999999999</c:v>
+                  <c:v>1.1519999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8329599999999999</c:v>
+                  <c:v>1.60765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88694399999999995</c:v>
+                  <c:v>0.73814400000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3259799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1049,10 +1058,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$7</c:f>
+              <c:f>Sheet1!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -1063,6 +1072,9 @@
                   <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
@@ -1070,21 +1082,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$11:$F$14</c:f>
+              <c:f>Sheet1!$F$12:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.6783399999999999</c:v>
+                  <c:v>0.68803199999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80179199999999995</c:v>
+                  <c:v>0.52326399999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.62656</c:v>
+                  <c:v>0.84889599999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6895</c:v>
+                  <c:v>1.3915500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.29101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1165,7 +1180,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="b"/>
+            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1195,10 +1210,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$7</c:f>
+              <c:f>Sheet1!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -1209,6 +1224,9 @@
                   <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
@@ -1216,21 +1234,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$11:$E$14</c:f>
+              <c:f>Sheet1!$E$12:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.99836800000000003</c:v>
+                  <c:v>0.35913600000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66047999999999996</c:v>
+                  <c:v>0.81510400000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.376</c:v>
+                  <c:v>0.33065600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34816000000000003</c:v>
+                  <c:v>0.31948799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.38957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1703,7 +1724,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$D$22</c:f>
+              <c:f>Sheet1!$D$20:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1727,24 +1748,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$18:$E$22</c:f>
+              <c:f>Sheet1!$E$20:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.8759699999999999</c:v>
+                  <c:v>0.76188800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.52474</c:v>
+                  <c:v>1.0689599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3357399999999999</c:v>
+                  <c:v>1.1519999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0177</c:v>
+                  <c:v>0.90828799999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3681300000000001</c:v>
+                  <c:v>1.03731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1799,7 +1820,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$D$22</c:f>
+              <c:f>Sheet1!$D$20:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1823,24 +1844,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$18:$F$22</c:f>
+              <c:f>Sheet1!$F$20:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.1411799999999999</c:v>
+                  <c:v>2.1832600000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.02752</c:v>
+                  <c:v>2.1575700000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1663399999999999</c:v>
+                  <c:v>0.96870400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2175400000000001</c:v>
+                  <c:v>1.1796500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6211500000000001</c:v>
+                  <c:v>1.01786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1895,7 +1916,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$D$22</c:f>
+              <c:f>Sheet1!$D$20:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1919,24 +1940,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$18:$G$22</c:f>
+              <c:f>Sheet1!$G$20:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>22.595600000000001</c:v>
+                  <c:v>0.60406400000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.276700000000002</c:v>
+                  <c:v>0.61558400000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.282299999999999</c:v>
+                  <c:v>0.456704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.547499999999999</c:v>
+                  <c:v>0.26828800000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.709199999999999</c:v>
+                  <c:v>0.67376000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,7 +2012,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$D$22</c:f>
+              <c:f>Sheet1!$D$20:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2015,24 +2036,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$18:$H$22</c:f>
+              <c:f>Sheet1!$H$20:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.5E-3</c:v>
+                  <c:v>8.0000000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5999999999999999E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.8E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8999999999999999E-3</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2539,7 +2560,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$D$22</c:f>
+              <c:f>Sheet1!$D$20:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2563,24 +2584,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$27:$E$31</c:f>
+              <c:f>Sheet1!$E$28:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.48127999999999999</c:v>
+                  <c:v>0.23321600000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33382400000000001</c:v>
+                  <c:v>0.49152000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66047999999999996</c:v>
+                  <c:v>0.81510400000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79359999999999997</c:v>
+                  <c:v>0.33075199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55200000000000005</c:v>
+                  <c:v>0.872448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2635,7 +2656,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$D$22</c:f>
+              <c:f>Sheet1!$D$20:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2659,24 +2680,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$27:$F$31</c:f>
+              <c:f>Sheet1!$F$28:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.61536000000000002</c:v>
+                  <c:v>1.03914</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.644096</c:v>
+                  <c:v>1.16326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80179199999999995</c:v>
+                  <c:v>0.52326399999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62880000000000003</c:v>
+                  <c:v>1.0262100000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76288</c:v>
+                  <c:v>0.63590400000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2731,7 +2752,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$D$22</c:f>
+              <c:f>Sheet1!$D$20:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2755,24 +2776,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$27:$G$31</c:f>
+              <c:f>Sheet1!$G$28:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.62361599999999995</c:v>
+                  <c:v>0.125056</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1171800000000001</c:v>
+                  <c:v>0.15564800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3695400000000002</c:v>
+                  <c:v>0.101632</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2329000000000001</c:v>
+                  <c:v>0.24166399999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.51939</c:v>
+                  <c:v>0.25087999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2827,7 +2848,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$D$22</c:f>
+              <c:f>Sheet1!$D$20:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2851,24 +2872,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$27:$H$31</c:f>
+              <c:f>Sheet1!$H$28:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2E-3</c:v>
+                  <c:v>5.0000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1999999999999999E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3E-3</c:v>
+                  <c:v>1.2999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3999999999999998E-3</c:v>
+                  <c:v>2.8E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2000000000000007E-3</c:v>
+                  <c:v>1.0500000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5590,90 +5611,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6" t="str">
-            <v>Coherent</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>Scattered</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>Naïve</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>32</v>
-          </cell>
-          <cell r="C7">
-            <v>480</v>
-          </cell>
-          <cell r="D7">
-            <v>440</v>
-          </cell>
-          <cell r="E7">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>128</v>
-          </cell>
-          <cell r="C8">
-            <v>460</v>
-          </cell>
-          <cell r="D8">
-            <v>466</v>
-          </cell>
-          <cell r="E8">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>256</v>
-          </cell>
-          <cell r="C9">
-            <v>420</v>
-          </cell>
-          <cell r="D9">
-            <v>436</v>
-          </cell>
-          <cell r="E9">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>1024</v>
-          </cell>
-          <cell r="C10">
-            <v>385</v>
-          </cell>
-          <cell r="D10">
-            <v>425</v>
-          </cell>
-          <cell r="E10">
-            <v>42</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5971,10 +5908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFFBE12-F396-4147-832F-09E4C2687A14}">
-  <dimension ref="D1:H31"/>
+  <dimension ref="D1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" topLeftCell="J10" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6028,10 +5965,10 @@
         <v>32</v>
       </c>
       <c r="E4">
-        <v>1.69062</v>
+        <v>1.6096999999999999</v>
       </c>
       <c r="F4">
-        <v>2.3849</v>
+        <v>2.1647400000000001</v>
       </c>
     </row>
     <row r="5" spans="4:8" x14ac:dyDescent="0.35">
@@ -6039,16 +5976,10 @@
         <v>128</v>
       </c>
       <c r="E5">
-        <v>2.3357399999999999</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="F5">
-        <v>1.1663399999999999</v>
-      </c>
-      <c r="G5">
-        <v>25.282299999999999</v>
-      </c>
-      <c r="H5">
-        <v>2.5999999999999999E-3</v>
+        <v>0.96870400000000001</v>
       </c>
     </row>
     <row r="6" spans="4:8" x14ac:dyDescent="0.35">
@@ -6056,318 +5987,334 @@
         <v>256</v>
       </c>
       <c r="E6">
-        <v>1.8329599999999999</v>
+        <v>1.60765</v>
       </c>
       <c r="F6">
-        <v>1.4643200000000001</v>
+        <v>1.13869</v>
       </c>
     </row>
     <row r="7" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D7">
+        <v>512</v>
+      </c>
+      <c r="E7">
+        <v>0.73814400000000002</v>
+      </c>
+      <c r="F7">
+        <v>2.40333</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D8">
         <v>1024</v>
       </c>
-      <c r="E7">
-        <v>0.88694399999999995</v>
-      </c>
-      <c r="F7">
-        <v>1.7500500000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E9" t="s">
-        <v>10</v>
+      <c r="E8">
+        <v>1.3259799999999999</v>
+      </c>
+      <c r="F8">
+        <v>1.97539</v>
       </c>
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
       <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D11">
-        <v>32</v>
-      </c>
-      <c r="E11">
-        <v>0.99836800000000003</v>
-      </c>
-      <c r="F11">
-        <v>1.6783399999999999</v>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D12">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="E12">
-        <v>0.66047999999999996</v>
+        <v>0.35913600000000001</v>
       </c>
       <c r="F12">
-        <v>0.80179199999999995</v>
-      </c>
-      <c r="G12">
-        <v>2.3695400000000002</v>
-      </c>
-      <c r="H12">
-        <v>2.3E-3</v>
+        <v>0.68803199999999998</v>
       </c>
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D13">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E13">
-        <v>0.376</v>
+        <v>0.81510400000000005</v>
       </c>
       <c r="F13">
-        <v>2.62656</v>
+        <v>0.52326399999999995</v>
       </c>
     </row>
     <row r="14" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D14">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="E14">
-        <v>0.34816000000000003</v>
+        <v>0.33065600000000001</v>
       </c>
       <c r="F14">
-        <v>1.6895</v>
+        <v>0.84889599999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>512</v>
+      </c>
+      <c r="E15">
+        <v>0.31948799999999999</v>
+      </c>
+      <c r="F15">
+        <v>1.3915500000000001</v>
       </c>
     </row>
     <row r="16" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s">
-        <v>0</v>
+      <c r="D16">
+        <v>1024</v>
+      </c>
+      <c r="E16">
+        <v>1.38957</v>
+      </c>
+      <c r="F16">
+        <v>1.29101</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D18">
-        <v>64</v>
-      </c>
-      <c r="E18">
-        <v>1.8759699999999999</v>
-      </c>
-      <c r="F18">
-        <v>2.1411799999999999</v>
-      </c>
-      <c r="G18">
-        <v>22.595600000000001</v>
-      </c>
-      <c r="H18">
-        <v>1.5E-3</v>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D19">
-        <v>128</v>
-      </c>
-      <c r="E19">
-        <v>1.52474</v>
-      </c>
-      <c r="F19">
-        <v>2.02752</v>
-      </c>
-      <c r="G19">
-        <v>21.276700000000002</v>
-      </c>
-      <c r="H19">
-        <v>1.8E-3</v>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D20">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="E20">
-        <v>2.3357399999999999</v>
+        <v>0.76188800000000001</v>
       </c>
       <c r="F20">
-        <v>1.1663399999999999</v>
+        <v>2.1832600000000002</v>
       </c>
       <c r="G20">
-        <v>25.282299999999999</v>
+        <v>0.60406400000000005</v>
       </c>
       <c r="H20">
-        <v>2.5999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D21">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E21">
-        <v>1.0177</v>
+        <v>1.0689599999999999</v>
       </c>
       <c r="F21">
-        <v>1.2175400000000001</v>
+        <v>2.1575700000000002</v>
       </c>
       <c r="G21">
-        <v>29.547499999999999</v>
+        <v>0.61558400000000002</v>
       </c>
       <c r="H21">
-        <v>3.8E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D22">
+        <v>256</v>
+      </c>
+      <c r="E22">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.96870400000000001</v>
+      </c>
+      <c r="G22">
+        <v>0.456704</v>
+      </c>
+      <c r="H22">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>512</v>
+      </c>
+      <c r="E23">
+        <v>0.90828799999999998</v>
+      </c>
+      <c r="F23">
+        <v>1.1796500000000001</v>
+      </c>
+      <c r="G23">
+        <v>0.26828800000000003</v>
+      </c>
+      <c r="H23">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D24">
         <v>1024</v>
       </c>
-      <c r="E22">
-        <v>1.3681300000000001</v>
-      </c>
-      <c r="F22">
-        <v>1.6211500000000001</v>
-      </c>
-      <c r="G22">
-        <v>22.709199999999999</v>
-      </c>
-      <c r="H22">
-        <v>6.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
+      <c r="E24">
+        <v>1.03731</v>
+      </c>
+      <c r="F24">
+        <v>1.01786</v>
+      </c>
+      <c r="G24">
+        <v>0.67376000000000003</v>
+      </c>
+      <c r="H24">
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
       <c r="E26" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D27">
-        <f>POWER(2, 6)</f>
-        <v>64</v>
-      </c>
-      <c r="E27">
-        <v>0.48127999999999999</v>
-      </c>
-      <c r="F27">
-        <v>0.61536000000000002</v>
-      </c>
-      <c r="G27">
-        <v>0.62361599999999995</v>
-      </c>
-      <c r="H27">
-        <v>2E-3</v>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D28">
-        <f>POWER(2, 7)</f>
-        <v>128</v>
+        <f>POWER(2, 6)</f>
+        <v>64</v>
       </c>
       <c r="E28">
-        <v>0.33382400000000001</v>
+        <v>0.23321600000000001</v>
       </c>
       <c r="F28">
-        <v>0.644096</v>
+        <v>1.03914</v>
       </c>
       <c r="G28">
-        <v>1.1171800000000001</v>
+        <v>0.125056</v>
       </c>
       <c r="H28">
-        <v>1.1999999999999999E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D29">
-        <f>POWER(2, 8)</f>
-        <v>256</v>
+        <f>POWER(2, 7)</f>
+        <v>128</v>
       </c>
       <c r="E29">
-        <v>0.66047999999999996</v>
+        <v>0.49152000000000001</v>
       </c>
       <c r="F29">
-        <v>0.80179199999999995</v>
+        <v>1.16326</v>
       </c>
       <c r="G29">
-        <v>2.3695400000000002</v>
+        <v>0.15564800000000001</v>
       </c>
       <c r="H29">
-        <v>2.3E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D30">
-        <f>POWER(2, 9)</f>
-        <v>512</v>
+        <f>POWER(2, 8)</f>
+        <v>256</v>
       </c>
       <c r="E30">
-        <v>0.79359999999999997</v>
+        <v>0.81510400000000005</v>
       </c>
       <c r="F30">
-        <v>0.62880000000000003</v>
+        <v>0.52326399999999995</v>
       </c>
       <c r="G30">
-        <v>1.2329000000000001</v>
+        <v>0.101632</v>
       </c>
       <c r="H30">
-        <v>3.3999999999999998E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D31">
+        <f>POWER(2, 9)</f>
+        <v>512</v>
+      </c>
+      <c r="E31">
+        <v>0.33075199999999999</v>
+      </c>
+      <c r="F31">
+        <v>1.0262100000000001</v>
+      </c>
+      <c r="G31">
+        <v>0.24166399999999999</v>
+      </c>
+      <c r="H31">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D32">
         <f>POWER(2, 10)</f>
         <v>1024</v>
       </c>
-      <c r="E31">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="F31">
-        <v>0.76288</v>
-      </c>
-      <c r="G31">
-        <v>1.51939</v>
-      </c>
-      <c r="H31">
-        <v>8.2000000000000007E-3</v>
+      <c r="E32">
+        <v>0.872448</v>
+      </c>
+      <c r="F32">
+        <v>0.63590400000000002</v>
+      </c>
+      <c r="G32">
+        <v>0.25087999999999999</v>
+      </c>
+      <c r="H32">
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
   </sheetData>
